--- a/perf_others.xlsx
+++ b/perf_others.xlsx
@@ -432,17 +432,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>69.8% [68.4%;71.4%]</t>
+          <t>70.1% [68.6%;71.8%]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>69.8% [68.4%;71.4%]</t>
+          <t>70.1% [68.6%;71.8%]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>69.8% [68.4%;71.4%]</t>
+          <t>70.1% [68.6%;71.8%]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -452,12 +452,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>11.2% [10.1%;12.3%]</t>
+          <t>11.1% [9.9%;12.2%]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>94.0% [89.0%;98.0%]</t>
+          <t>95.0% [90.0%;99.0%]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -484,17 +484,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>72.4% [70.8%;74.0%]</t>
+          <t>71.9% [70.3%;73.5%]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>72.4% [70.8%;74.0%]</t>
+          <t>71.9% [70.3%;73.6%]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>72.4% [70.8%;74.0%]</t>
+          <t>71.9% [70.3%;73.5%]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -504,12 +504,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4.7% [3.9%;5.5%]</t>
+          <t>5.2% [4.3%;6.1%]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>69.0% [60.0%;78.0%]</t>
+          <t>72.0% [63.0%;80.0%]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.4% [82.9%;87.9%]</t>
+          <t>85.5% [83.0%;87.9%]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>64.1% [62.0%;66.2%]</t>
+          <t>64.0% [61.9%;66.1%]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>10.4% [8.7%;12.2%]</t>
+          <t>10.3% [8.7%;12.1%]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>58.0% [48.0%;68.0%]</t>
+          <t>61.0% [51.0%;70.0%]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -588,17 +588,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.7% [80.6%;84.9%]</t>
+          <t>82.6% [80.5%;84.7%]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>82.7% [80.6%;84.9%]</t>
+          <t>82.6% [80.5%;84.7%]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>82.7% [80.6%;84.9%]</t>
+          <t>82.6% [80.5%;84.6%]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -608,12 +608,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.9% [0.7%;1.1%]</t>
+          <t>0.8% [0.6%;1.1%]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>59.0% [49.0%;68.0%]</t>
+          <t>49.0% [39.0%;59.0%]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -640,17 +640,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>72.2% [70.7%;73.7%]</t>
+          <t>71.6% [70.1%;73.1%]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>72.2% [70.7%;73.6%]</t>
+          <t>71.6% [70.1%;73.1%]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>72.2% [70.7%;73.6%]</t>
+          <t>71.6% [70.1%;73.1%]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -660,12 +660,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.2% [0.1%;0.3%]</t>
+          <t>0.1% [0.1%;0.2%]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>17.0% [10.0%;25.0%]</t>
+          <t>13.0% [7.0%;20.0%]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -692,32 +692,32 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.8% [87.7%;91.8%]</t>
+          <t>89.7% [87.6%;91.7%]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>71.2% [69.6%;72.9%]</t>
+          <t>71.3% [69.7%;73.0%]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>66.3% [65.2%;67.5%]</t>
+          <t>66.3% [65.2%;67.4%]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5.0% [4.9%;5.1%]</t>
+          <t>5.0% [5.0%;5.1%]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>7.1% [6.4%;7.8%]</t>
+          <t>7.1% [6.4%;7.9%]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>65.0% [56.0%;74.0%]</t>
+          <t>63.0% [53.0%;72.0%]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -744,27 +744,27 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>97.8% [96.6%;99.0%]</t>
+          <t>98.2% [97.0%;99.2%]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>97.8% [96.6%;99.0%]</t>
+          <t>98.2% [97.0%;99.2%]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>97.8% [96.6%;99.0%]</t>
+          <t>98.2% [97.0%;99.2%]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>11.6% [9.0%;14.4%]</t>
+          <t>11.8% [9.2%;14.6%]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>9.4% [7.3%;11.5%]</t>
+          <t>9.4% [7.4%;11.6%]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -796,22 +796,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>98.0% [96.8%;99.0%]</t>
+          <t>97.2% [95.6%;98.6%]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>98.0% [96.8%;99.0%]</t>
+          <t>97.2% [95.6%;98.6%]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>98.0% [96.8%;99.0%]</t>
+          <t>97.2% [95.6%;98.6%]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>8.2% [6.0%;10.6%]</t>
+          <t>8.0% [5.8%;10.2%]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -848,32 +848,32 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>95.8% [94.0%;97.4%]</t>
+          <t>95.6% [93.8%;97.2%]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>95.8% [94.0%;97.4%]</t>
+          <t>93.2% [91.0%;95.2%]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>95.8% [94.0%;97.4%]</t>
+          <t>88.0% [85.4%;90.6%]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>5.2% [3.2%;7.4%]</t>
+          <t>5.0% [3.2%;7.2%]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4.3% [2.7%;6.0%]</t>
+          <t>2.2% [1.0%;3.5%]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>22.0% [14.0%;30.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -905,27 +905,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>94.8% [92.8%;96.6%]</t>
+          <t>92.2% [90.0%;94.4%]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>94.8% [92.8%;96.6%]</t>
+          <t>87.8% [85.2%;90.2%]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3.8% [2.0%;5.8%]</t>
+          <t>3.8% [2.2%;5.6%]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3.2% [1.8%;4.7%]</t>
+          <t>2.1% [0.9%;3.4%]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>16.0% [9.0%;23.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -967,17 +967,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>19.1% [15.8%;22.5%]</t>
+          <t>17.2% [13.9%;20.7%]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>70.0% [61.0%;79.0%]</t>
+          <t>63.0% [53.0%;72.0%]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>70.0% [61.0%;79.0%]</t>
+          <t>63.0% [53.0%;72.0%]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>16.4% [13.3%;19.6%]</t>
+          <t>16.5% [13.3%;19.8%]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>66.0% [57.0%;75.0%]</t>
+          <t>64.0% [54.0%;73.0%]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>66.0% [57.0%;75.0%]</t>
+          <t>64.0% [54.0%;73.0%]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>15.5% [13.1%;17.9%]</t>
+          <t>15.1% [12.6%;17.7%]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>77.0% [69.0%;85.0%]</t>
+          <t>14.0% [8.0%;21.0%]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>77.0% [69.0%;85.0%]</t>
+          <t>11.0% [5.0%;17.0%]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1123,17 +1123,17 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>13.5% [11.3%;15.8%]</t>
+          <t>13.8% [11.6%;16.2%]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>74.0% [65.0%;82.0%]</t>
+          <t>14.0% [8.0%;21.0%]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>74.0% [65.0%;82.0%]</t>
+          <t>13.0% [7.0%;20.0%]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1264,32 +1264,32 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>91.0% [85.0%;96.0%]</t>
+          <t>92.0% [86.0%;97.0%]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>91.0% [85.0%;96.0%]</t>
+          <t>82.0% [74.0%;89.0%]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>91.0% [85.0%;96.0%]</t>
+          <t>82.0% [74.0%;89.0%]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>5.5% [3.2%;8.0%]</t>
+          <t>5.5% [3.2%;7.8%]</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>10.8% [6.5%;15.7%]</t>
+          <t>6.0% [2.5%;10.0%]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>19.0% [12.0%;27.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1316,32 +1316,32 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92.0% [86.0%;97.0%]</t>
+          <t>90.0% [84.0%;95.0%]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>92.0% [86.0%;97.0%]</t>
+          <t>80.0% [72.0%;88.0%]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>92.0% [86.0%;97.0%]</t>
+          <t>80.0% [72.0%;88.0%]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>6.8% [4.2%;9.5%]</t>
+          <t>6.0% [3.8%;8.5%]</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>12.7% [8.0%;17.7%]</t>
+          <t>5.7% [2.0%;10.0%]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>22.0% [14.0%;30.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
